--- a/excel/yeoksamdong.xlsx
+++ b/excel/yeoksamdong.xlsx
@@ -473,44 +473,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>달래해장 강남역플래티넘점</t>
+          <t>오늘와인한잔 강남역1번출구점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로78길 14 1층</t>
+          <t>서울 강남구 테헤란로4길 6 센트럴푸루지오시티 2층 217호</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[['24시간 영업'], ['일', '00:00 - 24:00'], ['월', '00:00 - 24:00', '07:00 - 09:30 브레이크타임'], ['화', '00:00 - 24:00'], ['수', '00:00 - 24:00'], ['목', '00:00 - 24:00'], ['금', '00:00 - 24:00'], ['토', '00:00 - 24:00']]</t>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '15:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0507-1346-4239</t>
+          <t>02-555-9132</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>낙타브루잉</t>
+          <t>FR13ND PUB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로106길 14 지하1층</t>
+          <t>서울 강남구 논현로71길 8 1층 FR13ND PUB</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '20:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02-6015-8500</t>
+          <t>0507-1338-4798</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '14:30 - 02:00'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00'], ['토', '14:30 - 02:00']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '16:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>뉴홍콩</t>
+          <t>달래해장 강남역플래티넘점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1344,17 +1344,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 강남구 봉은사로2길 16 2층 뉴홍콩</t>
+          <t>서울 강남구 강남대로78길 14 1층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더']]</t>
+          <t>[['24시간 영업'], ['일', '00:00 - 24:00'], ['월', '00:00 - 24:00', '07:00 - 09:30 브레이크타임'], ['화', '00:00 - 24:00'], ['수', '00:00 - 24:00'], ['목', '00:00 - 24:00'], ['금', '00:00 - 24:00'], ['토', '00:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0507-1327-1932</t>
+          <t>0507-1346-4239</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[['곧 영업 종료', '01:30에 영업 종료', '1시 30분에 영업 종료'], ['토', '16:00 - 01:30', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:30', '01:00 라스트오더'], ['화', '16:00 - 02:30', '01:00 라스트오더'], ['수', '16:00 - 02:30', '01:00 라스트오더'], ['목', '16:00 - 02:30', '01:00 라스트오더'], ['금', '16:00 - 02:30', '01:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:30', '01:00 라스트오더'], ['화', '16:00 - 02:30', '01:00 라스트오더'], ['수', '16:00 - 02:30', '01:00 라스트오더'], ['목', '16:00 - 02:30', '01:00 라스트오더'], ['금', '16:00 - 02:30', '01:00 라스트오더'], ['토', '16:00 - 01:30', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '14:00 - 02:00'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:30 - 05:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00'], ['화', '17:30 - 05:00'], ['수', '17:30 - 05:00'], ['목', '17:30 - 05:00'], ['금', '17:30 - 05:00']]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '16:00 - 02:00']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['- Last order 24:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- Last order 24:00']]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00', '23:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- 15:00~16:00 재료준비 시간']]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 00:30', '23:30 라스트오더'], ['월', '16:30 - 02:00', '01:00 라스트오더'], ['화', '16:30 - 02:00', '01:00 라스트오더'], ['수', '16:30 - 02:00', '01:00 라스트오더'], ['목', '16:30 - 02:00', '01:00 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료'], ['매일', '16:30 - 04:30']]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[['곧 영업 종료', '01:30에 영업 종료', '1시 30분에 영업 종료', '펼쳐보기'], ['생방송오늘저녁 2010회, 23.04.26.', '2023년 4월 26일', ' 곱도리탕/감자채전']]</t>
+          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작'], ['매일', '11:30 - 01:30', '00:30 라스트오더'], ['생방송오늘저녁 2010회, 23.04.26.', '2023년 4월 26일', ' 곱도리탕/감자채전']]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['매일', '15:30 - 05:00', '04:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2471,12 +2471,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>달래해장 강남역플래티넘점</t>
+          <t>오늘와인한잔 강남역1번출구점</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2491,24 +2491,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로78길 14 1층</t>
+          <t>서울 강남구 테헤란로4길 6 센트럴푸루지오시티 2층 217호</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[['24시간 영업'], ['일', '00:00 - 24:00'], ['월', '00:00 - 24:00', '07:00 - 09:30 브레이크타임'], ['화', '00:00 - 24:00'], ['수', '00:00 - 24:00'], ['목', '00:00 - 24:00'], ['금', '00:00 - 24:00'], ['토', '00:00 - 24:00']]</t>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '15:00 - 06:00']]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0507-1346-4239</t>
+          <t>02-555-9132</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>낙타브루잉</t>
+          <t>FR13ND PUB</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2518,27 +2518,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로106길 14 지하1층</t>
+          <t>서울 강남구 논현로71길 8 1층 FR13ND PUB</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '20:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>02-6015-8500</t>
+          <t>0507-1338-4798</t>
         </is>
       </c>
     </row>
@@ -2555,12 +2555,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:00 - 02:00']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '22:30 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '22:30 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '22:30 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '22:30 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '22:30 라스트오더'], ['토', '18:00 - 23:00', '21:30 라스트오더'], ['- 토요일 저녁영업은 간단한메뉴만 가능합니다']]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '14:30 - 02:00'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00'], ['토', '14:30 - 02:00']]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
+          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 02:00', '00:30 라스트오더'], ['월', '18:00 - 02:00', '00:30 라스트오더'], ['화', '18:00 - 02:00', '00:30 라스트오더'], ['수', '18:00 - 02:00', '00:30 라스트오더'], ['목', '18:00 - 02:00', '00:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 24:00', '22:50 라스트오더']]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['화', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['수', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['목', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['금', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['토', '17:30 - 00:30']]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '17:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기'], [''], ['휴무일', '07/24']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['접기']]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '16:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3322,12 +3322,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>뉴홍콩</t>
+          <t>달래해장 강남역플래티넘점</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3342,17 +3342,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>서울 강남구 봉은사로2길 16 2층 뉴홍콩</t>
+          <t>서울 강남구 강남대로78길 14 1층</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더']]</t>
+          <t>[['24시간 영업'], ['일', '00:00 - 24:00'], ['월', '00:00 - 24:00', '07:00 - 09:30 브레이크타임'], ['화', '00:00 - 24:00'], ['수', '00:00 - 24:00'], ['목', '00:00 - 24:00'], ['금', '00:00 - 24:00'], ['토', '00:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0507-1327-1932</t>
+          <t>0507-1346-4239</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[['곧 영업 종료', '01:30에 영업 종료', '1시 30분에 영업 종료'], ['토', '16:00 - 01:30', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:30', '01:00 라스트오더'], ['화', '16:00 - 02:30', '01:00 라스트오더'], ['수', '16:00 - 02:30', '01:00 라스트오더'], ['목', '16:00 - 02:30', '01:00 라스트오더'], ['금', '16:00 - 02:30', '01:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:30', '01:00 라스트오더'], ['화', '16:00 - 02:30', '01:00 라스트오더'], ['수', '16:00 - 02:30', '01:00 라스트오더'], ['목', '16:00 - 02:30', '01:00 라스트오더'], ['금', '16:00 - 02:30', '01:00 라스트오더'], ['토', '16:00 - 01:30', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '14:00 - 02:00'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
+          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:30 - 05:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00'], ['화', '17:30 - 05:00'], ['수', '17:30 - 05:00'], ['목', '17:30 - 05:00'], ['금', '17:30 - 05:00']]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['토', '18:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['- Last order 24:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- Last order 24:00']]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00', '23:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- 15:00~16:00 재료준비 시간']]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 00:30', '23:30 라스트오더'], ['월', '16:30 - 02:00', '01:00 라스트오더'], ['화', '16:30 - 02:00', '01:00 라스트오더'], ['수', '16:30 - 02:00', '01:00 라스트오더'], ['목', '16:30 - 02:00', '01:00 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료'], ['매일', '16:30 - 04:30']]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '14:00 - 04:00'], ['일', '14:00 - 02:00'], ['월', '16:00 - 03:00'], ['화', '16:00 - 03:00'], ['수', '16:00 - 03:00'], ['목', '16:00 - 03:00'], ['금', '15:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">

--- a/excel/yeoksamdong.xlsx
+++ b/excel/yeoksamdong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,74 +473,74 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>오늘와인한잔 강남역1번출구점</t>
+          <t>소와루</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로4길 6 센트럴푸루지오시티 2층 217호</t>
+          <t>서울 강남구 논현로87길 41 1층 105호 신일유토빌</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '15:00 - 06:00']]</t>
+          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['매일', '12:00 - 05:00', '04:30 라스트오더'], ['- 매장상황에 따라 다를수있습니다 방문전 전화 부탁드려요.']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02-555-9132</t>
+          <t>0507-1491-0600</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FR13ND PUB</t>
+          <t>부엉이산장 강남점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>802</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 강남구 논현로71길 8 1층 FR13ND PUB</t>
+          <t>서울 강남구 테헤란로1길 28-11 1층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '20:00 - 24:00']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['매일', '11:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0507-1338-4798</t>
+          <t>0507-1312-9901</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작'], ['매일', '11:30 - 24:00', '14:00 - 15:00 브레이크타임', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['매일', '11:30 - 24:00', '14:00 - 15:00 브레이크타임', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:30 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 03:00'], ['화', '17:30 - 03:00'], ['수', '17:30 - 03:00'], ['목', '17:30 - 03:00'], ['금', '17:30 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 03:00'], ['화', '17:30 - 03:00'], ['수', '17:30 - 03:00'], ['목', '17:30 - 03:00'], ['금', '17:30 - 03:00'], ['토', '17:30 - 03:00']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '15:00 - 05:00'], ['일', '15:00 - 05:00'], ['월', '16:00 - 05:00'], ['화', '16:00 - 05:00'], ['수', '16:00 - 05:00'], ['목', '16:00 - 05:00'], ['금', '16:00 - 05:00'], ['- 영업시간 외에 전화연결 불가합니다.톡톡문의 부탁드립니다']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['일', '15:00 - 05:00'], ['월', '16:00 - 05:00'], ['화', '16:00 - 05:00'], ['수', '16:00 - 05:00'], ['목', '16:00 - 05:00'], ['금', '16:00 - 05:00'], ['토', '15:00 - 05:00'], ['- 영업시간 외에 전화연결 불가합니다.톡톡문의 부탁드립니다']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -695,49 +695,49 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>랭맥</t>
+          <t>엠투포차 강남역점</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로78길 8 2층</t>
+          <t>서울 강남구 테헤란로1길 28-5 지상1층</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '15:00 - 03:00'], ['월', '11:00 - 03:00'], ['화', '11:00 - 03:00'], ['수', '11:00 - 03:00'], ['목', '11:00 - 03:00'], ['금', '11:00 - 03:00'], ['토', '11:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0507-1315-2129</t>
+          <t>0507-1330-0282</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>엠투포차 강남역점</t>
+          <t>랭맥</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,17 +752,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-5 지상1층</t>
+          <t>서울 강남구 강남대로78길 8 2층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '11:00 - 03:00'], ['일', '15:00 - 03:00'], ['월', '11:00 - 03:00'], ['화', '11:00 - 03:00'], ['수', '11:00 - 03:00'], ['목', '11:00 - 03:00'], ['금', '11:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0507-1330-0282</t>
+          <t>0507-1315-2129</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['매일', '14:00 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['매일', '14:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>503</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00'], ['토', '14:30 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00'], ['토', '14:30 - 02:00']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>583</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>611</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 02:00', '00:30 라스트오더'], ['월', '18:00 - 02:00', '00:30 라스트오더'], ['화', '18:00 - 02:00', '00:30 라스트오더'], ['수', '18:00 - 02:00', '00:30 라스트오더'], ['목', '18:00 - 02:00', '00:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00', '00:30 라스트오더'], ['월', '18:00 - 02:00', '00:30 라스트오더'], ['화', '18:00 - 02:00', '00:30 라스트오더'], ['수', '18:00 - 02:00', '00:30 라스트오더'], ['목', '18:00 - 02:00', '00:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 24:00', '22:50 라스트오더']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 24:00', '22:50 라스트오더']]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1065,44 +1065,44 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>경성야시장</t>
+          <t>아이러브펍</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로98길 16</t>
+          <t>서울 강남구 테헤란로4길 45 1층 아이러브펍</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '16:30 - 02:30']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '15:00 - 02:00'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 04:00'], ['금', '15:00 - 04:00'], ['토', '15:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0507-1406-7557</t>
+          <t>0507-1396-8028</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>센민이자카야</t>
+          <t>경성야시장</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1122,24 +1122,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로25길 35</t>
+          <t>서울 강남구 강남대로98길 16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['화', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['수', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['목', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['금', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['토', '17:30 - 00:30']]</t>
+          <t>[['영업 전', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '16:30 - 02:30']]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02-555-8160</t>
+          <t>0507-1406-7557</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>켄홈1991</t>
+          <t>센민이자카야</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1159,24 +1159,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로 109 SK허브젠 1층 104호 켄홈1991</t>
+          <t>서울 강남구 테헤란로25길 35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['화', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['수', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['목', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['금', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['토', '17:30 - 00:30']]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>010-3239-7594</t>
+          <t>02-555-8160</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>센야 본점</t>
+          <t>켄홈1991</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1196,29 +1196,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로9길 25 1층</t>
+          <t>서울 강남구 역삼로 109 SK허브젠 1층 104호 켄홈1991</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['접기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02-538-5827</t>
+          <t>010-3239-7594</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>아이러브펍</t>
+          <t>센야 본점</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로4길 45 1층 아이러브펍</t>
+          <t>서울 강남구 역삼로9길 25 1층</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '15:00 - 04:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 04:00'], ['금', '15:00 - 04:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['접기']]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0507-1396-8028</t>
+          <t>02-538-5827</t>
         </is>
       </c>
     </row>
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>877</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1287,49 +1287,49 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>싼술의 전당</t>
+          <t>케그샵프리미엄수제맥주&amp;전통주셀렉샵 강남점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로96길 13 지하1층</t>
+          <t>서울 강남구 강남대로94길 55-3 1층</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '16:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 설연휴 21~22일 오픈/23~24일 off 입니다!']]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0507-1436-0057</t>
+          <t>0507-1332-0990</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>달래해장 강남역플래티넘점</t>
+          <t>싼술의 전당</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1344,54 +1344,54 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로78길 14 1층</t>
+          <t>서울 강남구 강남대로96길 13 지하1층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[['24시간 영업'], ['일', '00:00 - 24:00'], ['월', '00:00 - 24:00', '07:00 - 09:30 브레이크타임'], ['화', '00:00 - 24:00'], ['수', '00:00 - 24:00'], ['목', '00:00 - 24:00'], ['금', '00:00 - 24:00'], ['토', '00:00 - 24:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00'], ['토', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0507-1346-4239</t>
+          <t>0507-1436-0057</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>단골손님 강남1호점</t>
+          <t>아이리쉬펍 더블린</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 40 2층</t>
+          <t>서울 강남구 강남대로 442 별관 2층</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0507-1347-9470</t>
+          <t>02-561-3281</t>
         </is>
       </c>
     </row>
@@ -1435,37 +1435,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>아이리쉬펍 더블린</t>
+          <t>단골손님 강남1호점</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>664</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로 442 별관 2층</t>
+          <t>서울 강남구 테헤란로1길 40 2층</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02-561-3281</t>
+          <t>0507-1347-9470</t>
         </is>
       </c>
     </row>
@@ -1482,12 +1482,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:30 - 05:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00'], ['화', '17:30 - 05:00'], ['수', '17:30 - 05:00'], ['목', '17:30 - 05:00'], ['금', '17:30 - 05:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00'], ['화', '17:30 - 05:00'], ['수', '17:30 - 05:00'], ['목', '17:30 - 05:00'], ['금', '17:30 - 05:00'], ['토', '17:30 - 05:00']]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>토리니쿠</t>
+          <t>구시야끼에독코</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,34 +1519,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>227</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로4길 16 1층</t>
+          <t>서울 강남구 역삼로 129</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '15:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 03:00'], ['금', '15:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- Last order 24:00']]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0507-1335-6088</t>
+          <t>070-7750-6808</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>켄홈 강남2호점</t>
+          <t>이도</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1556,34 +1556,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>329</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로1길 18 1층 켄홈</t>
+          <t>서울 강남구 논현로75길 7 1층</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0507-1361-8332</t>
+          <t>0507-1470-0034</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>구시야끼에독코</t>
+          <t>켄홈 강남2호점</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로 129</t>
+          <t>서울 강남구 역삼로1길 18 1층 켄홈</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- Last order 24:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>070-7750-6808</t>
+          <t>0507-1361-8332</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>이도</t>
+          <t>토리니쿠</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>138</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 강남구 논현로75길 7 1층</t>
+          <t>서울 강남구 역삼로4길 16 1층</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 03:00'], ['금', '15:00 - 03:00'], ['토', '15:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0507-1470-0034</t>
+          <t>0507-1335-6088</t>
         </is>
       </c>
     </row>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>773</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 22:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['수', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['목', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['금', '12:00 - 24:00'], ['토', '12:00 - 24:00']]</t>
+          <t>[['영업 중', '22:00에 영업 종료', '22시 0분에 영업 종료'], ['일', '12:00 - 22:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['수', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['목', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['금', '12:00 - 24:00'], ['토', '12:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1694,111 +1694,111 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>나즈드라비</t>
+          <t>강남일미포차</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>299</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-6 제이빌딩 지하 1층</t>
+          <t>서울 강남구 강남대로96길 15 1층</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '15:00 - 03:00'], ['일', '15:00 - 24:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '15:00 - 24:00', '23:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- 15:00~16:00 재료준비 시간']]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02-558-0053</t>
+          <t>02-561-9222</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>강남일미포차</t>
+          <t>요술포차역삼점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>567</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로96길 15 1층</t>
+          <t>서울 강남구 테헤란로19길 5 지하1층</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00', '23:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- 15:00~16:00 재료준비 시간']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 00:30', '23:30 라스트오더'], ['월', '16:30 - 02:00', '01:00 라스트오더'], ['화', '16:30 - 02:00', '01:00 라스트오더'], ['수', '16:30 - 02:00', '01:00 라스트오더'], ['목', '16:30 - 02:00', '01:00 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02-561-9222</t>
+          <t>02-564-9939</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>요술포차역삼점</t>
+          <t>나즈드라비</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>638</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로19길 5 지하1층</t>
+          <t>서울 강남구 테헤란로1길 28-6 제이빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 00:30', '23:30 라스트오더'], ['월', '16:30 - 02:00', '01:00 라스트오더'], ['화', '16:30 - 02:00', '01:00 라스트오더'], ['수', '16:30 - 02:00', '01:00 라스트오더'], ['목', '16:30 - 02:00', '01:00 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '16:30 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02-564-9939</t>
+          <t>02-558-0053</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>284</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1916,7 +1916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>미인이자카야포차</t>
+          <t>싼술의 전당</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1926,34 +1926,34 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>336</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 16 삼원빌딩 지하 1층</t>
+          <t>서울 강남구 강남대로96길 13 지하1층</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료'], ['매일', '16:30 - 04:30']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00'], ['토', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02-554-8686</t>
+          <t>0507-1436-0057</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>싼술의 전당</t>
+          <t>미인이자카야포차</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1973,17 +1973,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로96길 13 지하1층</t>
+          <t>서울 강남구 테헤란로1길 16 삼원빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '16:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00']]</t>
+          <t>[['영업 전', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '16:30 - 04:30']]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0507-1436-0057</t>
+          <t>02-554-8686</t>
         </is>
       </c>
     </row>
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>802</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작'], ['매일', '11:30 - 01:30', '00:30 라스트오더'], ['생방송오늘저녁 2010회, 23.04.26.', '2023년 4월 26일', ' 곱도리탕/감자채전']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['매일', '11:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00', '00:00 라스트오더'], ['줄서는식당 15회, 22.05.02.', '2022년 5월 2일', ' 화산마라전골']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '17:00 - 03:00', '02:00 라스트오더'], ['화', '17:00 - 03:00', '02:00 라스트오더'], ['수', '17:00 - 03:00', '02:00 라스트오더'], ['목', '17:00 - 03:00', '02:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['- 설날 당일 휴무']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '17:00 - 03:00', '02:00 라스트오더'], ['화', '17:00 - 03:00', '02:00 라스트오더'], ['수', '17:00 - 03:00', '02:00 라스트오더'], ['목', '17:00 - 03:00', '02:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['- 설날 당일 휴무']]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2175,7 +2175,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>포차테라스</t>
+          <t>아트몬스터 강남역점</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2185,44 +2185,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로98길 9 3층</t>
+          <t>서울 강남구 테헤란로1길 28-3</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['일', '15:00 - 23:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '15:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0507-1351-7858</t>
+          <t>0507-1336-6110</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>아트몬스터 강남역점</t>
+          <t>코다차야 강남점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2232,54 +2232,54 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-3</t>
+          <t>서울 강남구 강남대로 468 충림빌딩 지하2층 코다차야강남점</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 23:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '15:00 - 01:00'], ['생방송투데이 2658회, 20.09.14.', '2020년 9월 14일', ' 세븐피자/순살로제크림치즈치킨/수제맥주']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 라스트오더 (일~목) 23시 30분, (금,토) 24시']]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0507-1336-6110</t>
+          <t>02-3453-6666</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>코다차야 강남점</t>
+          <t>포차테라스</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>289</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로 468 충림빌딩 지하2층 코다차야강남점</t>
+          <t>서울 강남구 강남대로98길 9 3층</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 라스트오더 (일~목) 23시 30분, (금,토) 24시']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02-3453-6666</t>
+          <t>0507-1351-7858</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '14:00 - 04:00'], ['일', '14:00 - 02:00'], ['월', '16:00 - 03:00'], ['화', '16:00 - 03:00'], ['수', '16:00 - 03:00'], ['목', '16:00 - 03:00'], ['금', '15:00 - 04:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '14:00 - 02:00'], ['월', '16:00 - 03:00'], ['화', '16:00 - 03:00'], ['수', '16:00 - 03:00'], ['목', '16:00 - 03:00'], ['금', '15:00 - 04:00'], ['토', '14:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2323,7 +2323,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>이자카야 겸</t>
+          <t>야다이</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2333,34 +2333,34 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>387</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>서울 강남구 도곡로27길 3 1층 이자카야겸</t>
+          <t>서울 강남구 테헤란로1길 28-1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:15에 라스트오더', '2시 15분에 라스트오더'], ['매일', '16:30 - 03:00', '02:15 라스트오더']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['일', '13:00 - 05:00'], ['월', '13:00 - 03:00'], ['화', '13:00 - 03:00'], ['수', '13:00 - 03:00'], ['목', '13:00 - 03:00'], ['금', '13:00 - 03:00'], ['토', '13:00 - 05:00']]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0507-1355-2042</t>
+          <t>02-561-9927</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>더 간사이</t>
+          <t>이자카야 겸</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2380,17 +2380,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>서울 강남구 논현로85길 35 세하빌딩 1층 더 간사이</t>
+          <t>서울 강남구 도곡로27길 3 1층 이자카야겸</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 전', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '16:30 - 03:00', '02:15 라스트오더']]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0507-1426-3342</t>
+          <t>0507-1355-2042</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>364</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>야다이</t>
+          <t>더 간사이</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2444,101 +2444,101 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>288</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-1</t>
+          <t>서울 강남구 논현로85길 35 세하빌딩 1층 더 간사이</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '13:00 - 05:00'], ['일', '13:00 - 05:00'], ['월', '13:00 - 03:00'], ['화', '13:00 - 03:00'], ['수', '13:00 - 03:00'], ['목', '13:00 - 03:00'], ['금', '13:00 - 03:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>02-561-9927</t>
+          <t>0507-1426-3342</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>오늘와인한잔 강남역1번출구점</t>
+          <t>소와루</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로4길 6 센트럴푸루지오시티 2층 217호</t>
+          <t>서울 강남구 논현로87길 41 1층 105호 신일유토빌</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '15:00 - 06:00']]</t>
+          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['매일', '12:00 - 05:00', '04:30 라스트오더'], ['- 매장상황에 따라 다를수있습니다 방문전 전화 부탁드려요.']]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02-555-9132</t>
+          <t>0507-1491-0600</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FR13ND PUB</t>
+          <t>부엉이산장 강남점</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>802</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>서울 강남구 논현로71길 8 1층 FR13ND PUB</t>
+          <t>서울 강남구 테헤란로1길 28-11 1층</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '20:00 - 24:00']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['매일', '11:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0507-1338-4798</t>
+          <t>0507-1312-9901</t>
         </is>
       </c>
     </row>
@@ -2555,12 +2555,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작'], ['매일', '11:30 - 24:00', '14:00 - 15:00 브레이크타임', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['매일', '11:30 - 24:00', '14:00 - 15:00 브레이크타임', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:30 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 03:00'], ['화', '17:30 - 03:00'], ['수', '17:30 - 03:00'], ['목', '17:30 - 03:00'], ['금', '17:30 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 03:00'], ['화', '17:30 - 03:00'], ['수', '17:30 - 03:00'], ['목', '17:30 - 03:00'], ['금', '17:30 - 03:00'], ['토', '17:30 - 03:00']]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '15:00 - 05:00'], ['일', '15:00 - 05:00'], ['월', '16:00 - 05:00'], ['화', '16:00 - 05:00'], ['수', '16:00 - 05:00'], ['목', '16:00 - 05:00'], ['금', '16:00 - 05:00'], ['- 영업시간 외에 전화연결 불가합니다.톡톡문의 부탁드립니다']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['일', '15:00 - 05:00'], ['월', '16:00 - 05:00'], ['화', '16:00 - 05:00'], ['수', '16:00 - 05:00'], ['목', '16:00 - 05:00'], ['금', '16:00 - 05:00'], ['토', '15:00 - 05:00'], ['- 영업시간 외에 전화연결 불가합니다.톡톡문의 부탁드립니다']]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2693,49 +2693,49 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>랭맥</t>
+          <t>엠투포차 강남역점</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로78길 8 2층</t>
+          <t>서울 강남구 테헤란로1길 28-5 지상1층</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['일', '15:00 - 03:00'], ['월', '11:00 - 03:00'], ['화', '11:00 - 03:00'], ['수', '11:00 - 03:00'], ['목', '11:00 - 03:00'], ['금', '11:00 - 03:00'], ['토', '11:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0507-1315-2129</t>
+          <t>0507-1330-0282</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>엠투포차 강남역점</t>
+          <t>랭맥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2750,17 +2750,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-5 지상1층</t>
+          <t>서울 강남구 강남대로78길 8 2층</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '11:00 - 03:00'], ['일', '15:00 - 03:00'], ['월', '11:00 - 03:00'], ['화', '11:00 - 03:00'], ['수', '11:00 - 03:00'], ['목', '11:00 - 03:00'], ['금', '11:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['- 일요일 휴무입니다.']]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0507-1330-0282</t>
+          <t>0507-1315-2129</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['매일', '14:00 - 01:00', '00:30 라스트오더']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['매일', '14:00 - 01:00', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2814,12 +2814,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>503</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00'], ['토', '14:30 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '14:00 - 01:00'], ['월', '14:30 - 02:00'], ['화', '14:30 - 02:00'], ['수', '14:30 - 02:00'], ['목', '14:30 - 02:00'], ['금', '14:30 - 03:00'], ['토', '14:30 - 02:00']]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>583</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00'], ['- 24시까지 주문 받습니다.']]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>611</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더'], ['일', '18:00 - 02:00', '00:30 라스트오더'], ['월', '18:00 - 02:00', '00:30 라스트오더'], ['화', '18:00 - 02:00', '00:30 라스트오더'], ['수', '18:00 - 02:00', '00:30 라스트오더'], ['목', '18:00 - 02:00', '00:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00', '00:30 라스트오더'], ['월', '18:00 - 02:00', '00:30 라스트오더'], ['화', '18:00 - 02:00', '00:30 라스트오더'], ['수', '18:00 - 02:00', '00:30 라스트오더'], ['목', '18:00 - 02:00', '00:30 라스트오더'], ['금', '18:00 - 03:00', '01:30 라스트오더'], ['토', '18:00 - 03:00', '01:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 24:00', '22:50 라스트오더']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 24:00', '22:50 라스트오더']]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3063,44 +3063,44 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>경성야시장</t>
+          <t>아이러브펍</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로98길 16</t>
+          <t>서울 강남구 테헤란로4길 45 1층 아이러브펍</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '16:30 - 02:30']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '15:00 - 02:00'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 04:00'], ['금', '15:00 - 04:00'], ['토', '15:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0507-1406-7557</t>
+          <t>0507-1396-8028</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>센민이자카야</t>
+          <t>경성야시장</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3120,24 +3120,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로25길 35</t>
+          <t>서울 강남구 강남대로98길 16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['화', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['수', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['목', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['금', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['토', '17:30 - 00:30']]</t>
+          <t>[['영업 전', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '16:30 - 02:30']]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02-555-8160</t>
+          <t>0507-1406-7557</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>켄홈1991</t>
+          <t>센민이자카야</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3157,24 +3157,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로 109 SK허브젠 1층 104호 켄홈1991</t>
+          <t>서울 강남구 테헤란로25길 35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['화', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['수', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['목', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['금', '11:30 - 00:30', '14:00 - 17:30 브레이크타임'], ['토', '17:30 - 00:30']]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>010-3239-7594</t>
+          <t>02-555-8160</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>센야 본점</t>
+          <t>켄홈1991</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3194,29 +3194,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로9길 25 1층</t>
+          <t>서울 강남구 역삼로 109 SK허브젠 1층 104호 켄홈1991</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['접기']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02-538-5827</t>
+          <t>010-3239-7594</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>아이러브펍</t>
+          <t>센야 본점</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로4길 45 1층 아이러브펍</t>
+          <t>서울 강남구 역삼로9길 25 1층</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '15:00 - 04:00'], ['일', '15:00 - 02:00'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 04:00'], ['금', '15:00 - 04:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월(7/24)', '휴무'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['접기']]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0507-1396-8028</t>
+          <t>02-538-5827</t>
         </is>
       </c>
     </row>
@@ -3258,12 +3258,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>877</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '18:00 - 03:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00']]</t>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3285,49 +3285,49 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>싼술의 전당</t>
+          <t>케그샵프리미엄수제맥주&amp;전통주셀렉샵 강남점</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로96길 13 지하1층</t>
+          <t>서울 강남구 강남대로94길 55-3 1층</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '16:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 설연휴 21~22일 오픈/23~24일 off 입니다!']]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0507-1436-0057</t>
+          <t>0507-1332-0990</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>달래해장 강남역플래티넘점</t>
+          <t>싼술의 전당</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3342,54 +3342,54 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로78길 14 1층</t>
+          <t>서울 강남구 강남대로96길 13 지하1층</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[['24시간 영업'], ['일', '00:00 - 24:00'], ['월', '00:00 - 24:00', '07:00 - 09:30 브레이크타임'], ['화', '00:00 - 24:00'], ['수', '00:00 - 24:00'], ['목', '00:00 - 24:00'], ['금', '00:00 - 24:00'], ['토', '00:00 - 24:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00'], ['토', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0507-1346-4239</t>
+          <t>0507-1436-0057</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>단골손님 강남1호점</t>
+          <t>아이리쉬펍 더블린</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 40 2층</t>
+          <t>서울 강남구 강남대로 442 별관 2층</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['매일', '16:00 - 04:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0507-1347-9470</t>
+          <t>02-561-3281</t>
         </is>
       </c>
     </row>
@@ -3433,37 +3433,37 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>아이리쉬펍 더블린</t>
+          <t>단골손님 강남1호점</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>664</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로 442 별관 2층</t>
+          <t>서울 강남구 테헤란로1길 40 2층</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[['영업 종료', '14:00에 영업 시작', '14시 0분에 영업 시작'], ['일', '14:00 - 24:00'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '14:00 - 02:00'], ['- 내부사정에 의해 영업시간은 다를수 있습니다.']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02-561-3281</t>
+          <t>0507-1347-9470</t>
         </is>
       </c>
     </row>
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>208</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '17:30 - 05:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00'], ['화', '17:30 - 05:00'], ['수', '17:30 - 05:00'], ['목', '17:30 - 05:00'], ['금', '17:30 - 05:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00'], ['화', '17:30 - 05:00'], ['수', '17:30 - 05:00'], ['목', '17:30 - 05:00'], ['금', '17:30 - 05:00'], ['토', '17:30 - 05:00']]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3507,7 +3507,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>토리니쿠</t>
+          <t>구시야끼에독코</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3517,34 +3517,34 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>227</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로4길 16 1층</t>
+          <t>서울 강남구 역삼로 129</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '15:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 03:00'], ['금', '15:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- Last order 24:00']]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0507-1335-6088</t>
+          <t>070-7750-6808</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>켄홈 강남2호점</t>
+          <t>이도</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3554,34 +3554,34 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>329</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로1길 18 1층 켄홈</t>
+          <t>서울 강남구 논현로75길 7 1층</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0507-1361-8332</t>
+          <t>0507-1470-0034</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>구시야끼에독코</t>
+          <t>켄홈 강남2호점</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3591,34 +3591,34 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>서울 강남구 역삼로 129</t>
+          <t>서울 강남구 역삼로1길 18 1층 켄홈</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['- Last order 24:00']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>070-7750-6808</t>
+          <t>0507-1361-8332</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>이도</t>
+          <t>토리니쿠</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3628,27 +3628,27 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>138</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>서울 강남구 논현로75길 7 1층</t>
+          <t>서울 강남구 역삼로4길 16 1층</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 03:00'], ['화', '15:00 - 03:00'], ['수', '15:00 - 03:00'], ['목', '15:00 - 03:00'], ['금', '15:00 - 03:00'], ['토', '15:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0507-1470-0034</t>
+          <t>0507-1335-6088</t>
         </is>
       </c>
     </row>
@@ -3665,12 +3665,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>773</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[['영업 종료', '12:00에 영업 시작', '12시 0분에 영업 시작'], ['일', '12:00 - 22:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['수', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['목', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['금', '12:00 - 24:00'], ['토', '12:00 - 24:00']]</t>
+          <t>[['영업 중', '22:00에 영업 종료', '22시 0분에 영업 종료'], ['일', '12:00 - 22:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['수', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['목', '12:00 - 23:00', '15:00 - 17:00 브레이크타임'], ['금', '12:00 - 24:00'], ['토', '12:00 - 24:00']]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3692,111 +3692,111 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>나즈드라비</t>
+          <t>강남일미포차</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>299</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-6 제이빌딩 지하 1층</t>
+          <t>서울 강남구 강남대로96길 15 1층</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '15:00 - 03:00'], ['일', '15:00 - 24:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['일', '15:00 - 24:00', '23:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- 15:00~16:00 재료준비 시간']]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02-558-0053</t>
+          <t>02-561-9222</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>강남일미포차</t>
+          <t>요술포차역삼점</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>567</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로96길 15 1층</t>
+          <t>서울 강남구 테헤란로19길 5 지하1층</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 24:00', '23:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '15:00 - 02:00', '01:30 라스트오더'], ['- 15:00~16:00 재료준비 시간']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 00:30', '23:30 라스트오더'], ['월', '16:30 - 02:00', '01:00 라스트오더'], ['화', '16:30 - 02:00', '01:00 라스트오더'], ['수', '16:30 - 02:00', '01:00 라스트오더'], ['목', '16:30 - 02:00', '01:00 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '16:30 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02-561-9222</t>
+          <t>02-564-9939</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>요술포차역삼점</t>
+          <t>나즈드라비</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>638</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로19길 5 지하1층</t>
+          <t>서울 강남구 테헤란로1길 28-6 제이빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 00:30', '23:30 라스트오더'], ['월', '16:30 - 02:00', '01:00 라스트오더'], ['화', '16:30 - 02:00', '01:00 라스트오더'], ['수', '16:30 - 02:00', '01:00 라스트오더'], ['목', '16:30 - 02:00', '01:00 라스트오더'], ['금', '16:30 - 02:00', '01:00 라스트오더'], ['토', '16:30 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02-564-9939</t>
+          <t>02-558-0053</t>
         </is>
       </c>
     </row>
@@ -3813,12 +3813,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['토', '17:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00']]</t>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3887,12 +3887,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>284</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['매일', '15:00 - 02:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:00 - 02:00']]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3914,7 +3914,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>미인이자카야포차</t>
+          <t>싼술의 전당</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3924,34 +3924,34 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>336</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 16 삼원빌딩 지하 1층</t>
+          <t>서울 강남구 강남대로96길 13 지하1층</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:30에 영업 종료', '4시 30분에 영업 종료'], ['매일', '16:30 - 04:30']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00'], ['토', '16:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02-554-8686</t>
+          <t>0507-1436-0057</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>싼술의 전당</t>
+          <t>미인이자카야포차</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3971,17 +3971,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로96길 13 지하1층</t>
+          <t>서울 강남구 테헤란로1길 16 삼원빌딩 지하 1층</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '16:00 - 04:00'], ['일', '16:00 - 02:00'], ['월', '16:00 - 02:00'], ['화', '16:00 - 02:00'], ['수', '16:00 - 02:00'], ['목', '16:00 - 02:00'], ['금', '16:00 - 04:00']]</t>
+          <t>[['영업 전', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '16:30 - 04:30']]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0507-1436-0057</t>
+          <t>02-554-8686</t>
         </is>
       </c>
     </row>
@@ -3998,12 +3998,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>802</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[['영업 종료', '11:30에 영업 시작', '11시 30분에 영업 시작'], ['매일', '11:30 - 01:30', '00:30 라스트오더'], ['생방송오늘저녁 2010회, 23.04.26.', '2023년 4월 26일', ' 곱도리탕/감자채전']]</t>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['매일', '11:30 - 01:30', '00:30 라스트오더']]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00', '00:00 라스트오더'], ['줄서는식당 15회, 22.05.02.', '2022년 5월 2일', ' 화산마라전골']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4072,12 +4072,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>214</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '17:00 - 03:00', '02:00 라스트오더'], ['화', '17:00 - 03:00', '02:00 라스트오더'], ['수', '17:00 - 03:00', '02:00 라스트오더'], ['목', '17:00 - 03:00', '02:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['- 설날 당일 휴무']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '17:00 - 03:00', '02:00 라스트오더'], ['화', '17:00 - 03:00', '02:00 라스트오더'], ['수', '17:00 - 03:00', '02:00 라스트오더'], ['목', '17:00 - 03:00', '02:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['- 설날 당일 휴무']]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4146,12 +4146,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '16:00 - 02:00', '01:30 라스트오더'], ['화', '16:00 - 02:00', '01:30 라스트오더'], ['수', '16:00 - 02:00', '01:30 라스트오더'], ['목', '16:00 - 02:00', '01:30 라스트오더'], ['금', '16:00 - 02:00', '01:30 라스트오더'], ['토', '16:00 - 02:00', '01:30 라스트오더'], ['- 매주일요일은 정기휴무입니다.']]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4173,7 +4173,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>포차테라스</t>
+          <t>아트몬스터 강남역점</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4183,44 +4183,44 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로98길 9 3층</t>
+          <t>서울 강남구 테헤란로1길 28-3</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['일', '15:00 - 23:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '15:00 - 01:00']]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0507-1351-7858</t>
+          <t>0507-1336-6110</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>아트몬스터 강남역점</t>
+          <t>코다차야 강남점</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4230,54 +4230,54 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>서울 강남구 테헤란로1길 28-3</t>
+          <t>서울 강남구 강남대로 468 충림빌딩 지하2층 코다차야강남점</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[['영업 종료', '15:00에 영업 시작', '15시 0분에 영업 시작'], ['일', '15:00 - 23:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '15:00 - 01:00'], ['생방송투데이 2658회, 20.09.14.', '2020년 9월 14일', ' 세븐피자/순살로제크림치즈치킨/수제맥주']]</t>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 라스트오더 (일~목) 23시 30분, (금,토) 24시']]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0507-1336-6110</t>
+          <t>02-3453-6666</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>코다차야 강남점</t>
+          <t>포차테라스</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>289</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>서울 강남구 강남대로 468 충림빌딩 지하2층 코다차야강남점</t>
+          <t>서울 강남구 강남대로98길 9 3층</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[['영업 종료', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 라스트오더 (일~목) 23시 30분, (금,토) 24시']]</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02-3453-6666</t>
+          <t>0507-1351-7858</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[['영업 중', '04:00에 영업 종료', '4시 0분에 영업 종료'], ['토', '14:00 - 04:00'], ['일', '14:00 - 02:00'], ['월', '16:00 - 03:00'], ['화', '16:00 - 03:00'], ['수', '16:00 - 03:00'], ['목', '16:00 - 03:00'], ['금', '15:00 - 04:00']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '14:00 - 02:00'], ['월', '16:00 - 03:00'], ['화', '16:00 - 03:00'], ['수', '16:00 - 03:00'], ['목', '16:00 - 03:00'], ['금', '15:00 - 04:00'], ['토', '14:00 - 04:00']]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4321,7 +4321,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>이자카야 겸</t>
+          <t>야다이</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4331,34 +4331,34 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>387</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>서울 강남구 도곡로27길 3 1층 이자카야겸</t>
+          <t>서울 강남구 테헤란로1길 28-1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:15에 라스트오더', '2시 15분에 라스트오더'], ['매일', '16:30 - 03:00', '02:15 라스트오더']]</t>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['일', '13:00 - 05:00'], ['월', '13:00 - 03:00'], ['화', '13:00 - 03:00'], ['수', '13:00 - 03:00'], ['목', '13:00 - 03:00'], ['금', '13:00 - 03:00'], ['토', '13:00 - 05:00']]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0507-1355-2042</t>
+          <t>02-561-9927</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>더 간사이</t>
+          <t>이자카야 겸</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4378,17 +4378,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>서울 강남구 논현로85길 35 세하빌딩 1층 더 간사이</t>
+          <t>서울 강남구 도곡로27길 3 1층 이자카야겸</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[['영업 종료', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
+          <t>[['영업 전', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '16:30 - 03:00', '02:15 라스트오더']]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0507-1426-3342</t>
+          <t>0507-1355-2042</t>
         </is>
       </c>
     </row>
@@ -4405,12 +4405,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>364</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>야다이</t>
+          <t>더 간사이</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4442,27 +4442,5577 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로85길 35 세하빌딩 1층 더 간사이</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['일', '16:00 - 02:00', '01:00 라스트오더'], ['월', '16:00 - 02:00', '01:00 라스트오더'], ['화', '16:00 - 02:00', '01:00 라스트오더'], ['수', '16:00 - 02:00', '01:00 라스트오더'], ['목', '16:00 - 02:00', '01:00 라스트오더'], ['금', '16:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0507-1426-3342</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>회장님댁 강남역점</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 28 지하</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '14:00 - 02:00'], ['월', '14:00 - 03:00'], ['화', '14:00 - 03:00'], ['수', '14:00 - 03:00'], ['목', '14:00 - 03:00'], ['금', '14:00 - 05:00'], ['토', '14:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0507-1321-9264</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>윤이불닭발 강남점</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로96길 16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>02-555-7370</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>밀회관 역삼역점</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로33길 18 1층</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[['곧 영업 시작', '16:00에 영업 시작', '16시 0분에 영업 시작'], ['매일', '16:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>02-565-1158</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>청담이상 강남역점</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 42 2층, 3층</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00'], ['토', '16:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0507-1310-0027</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>크래프트한스 강남직영점</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로96길 12 1층</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 24:00', '23:00 라스트오더'], ['화', '15:00 - 24:00', '23:00 라스트오더'], ['수', '15:00 - 24:00', '23:00 라스트오더'], ['목', '15:00 - 24:00', '23:00 라스트오더'], ['금', '15:00 - 01:00', '00:00 라스트오더'], ['토', '15:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>02-562-3342</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>브롱스 강남점</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로94길 15 에스투빌딩 지하1층</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[['영업 전', '16:50에 영업 시작', '16시 50분에 영업 시작'], ['일', '16:50 - 23:00'], ['월', '16:00 - 23:55'], ['화', '16:00 - 23:55'], ['수', '16:00 - 23:55'], ['목', '16:00 - 23:55'], ['금', '16:00 - 23:55'], ['토', '16:00 - 01:00'], ['- 주중 금요일영업은 새벽 1시까지 연장합니다.']]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0507-1401-7871</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>루프808</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로 470 16층</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '12:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0507-1337-8088</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>아브라소812</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로4길 29 B1호</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 23:00', '21:30 라스트오더'], ['월', '18:30 - 01:30', '00:00 라스트오더'], ['화', '18:30 - 01:30', '00:00 라스트오더'], ['수', '18:30 - 01:30', '00:00 라스트오더'], ['목', '18:30 - 01:30', '00:00 라스트오더'], ['금', '18:30 - 01:30', '00:00 라스트오더'], ['토', '17:30 - 01:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0507-1312-0812</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>엘빈에비뉴 라운지</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로92길 13 지하1, 2층</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월', '18:00 - 02:00', '01:30 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 03:00', '02:30 라스트오더'], ['토', '18:00 - 03:00', '02:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0507-1314-9449</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>대동집 강남역점</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로18길 88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['일', '15:30 - 02:30'], ['월', '15:30 - 02:30'], ['화', '15:30 - 02:30'], ['수', '15:30 - 02:30'], ['목', '15:30 - 02:30'], ['금', '15:30 - 03:00'], ['토', '15:30 - 03:00'], ['- 공휴일 전날 새벽 3시까지 영업합니다']]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>02-554-4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>모로미쿠시 역삼초교점</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로 109 sk허브젠 109호</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['- 재료소진시 조기마감할수있습니다^^']]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0507-1413-2828</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>오술차 강남역점</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로2길 10 지하1층</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 04:00'], ['토', '18:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>02-3453-5900</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>하이퍼서울</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로96길 15 지하 1층</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['일', '19:00 - 03:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '21:00 - 05:00'], ['토', '21:00 - 05:00'], ['- 7월 18일부터 매주 화요일 다시 찾아뵙니다!']]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0507-1314-9615</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>무월</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로4길 21</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['매일', '15:00 - 23:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0507-1420-3060</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>삼미미이자카야</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로87길 41 신일유토빌 110-1호</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[['24시간 영업', '연중무휴', '연중무휴'], ['매일', '00:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>02-6081-1110</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>어글리</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로96길 5 5F</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0507-1354-4222</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>꼭그닭 강남점</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로4길 37 지하 1층</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '13:00 - 24:00', '23:00 라스트오더'], ['월', '15:00 - 24:00', '23:00 라스트오더'], ['화', '15:00 - 24:00', '23:00 라스트오더'], ['수', '15:00 - 24:00', '23:00 라스트오더'], ['목', '15:00 - 24:00', '23:00 라스트오더'], ['금', '15:00 - 24:00', '23:00 라스트오더'], ['토', '13:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0507-1401-5335</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>전봇대</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로108길 8 1층</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 05:00', '03:30 라스트오더'], ['화', '17:30 - 05:00', '03:30 라스트오더'], ['수', '17:30 - 05:00', '03:30 라스트오더'], ['목', '17:30 - 05:00', '03:30 라스트오더'], ['금', '17:30 - 05:00', '03:30 라스트오더'], ['토', '17:30 - 04:00', '02:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>02-558-6542</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 강남역1번출구점</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 6 센트럴푸루지오시티 2층 217호</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '15:00 - 06:00']]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>02-555-9132</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>와인어클락</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로106길 14 오성빌딩 2층</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 01:00', '00:00 라스트오더'], ['화', '16:00 - 01:00', '00:00 라스트오더'], ['수', '16:00 - 01:00', '00:00 라스트오더'], ['목', '16:00 - 01:00', '00:00 라스트오더'], ['금', '16:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0507-1367-2201</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>오후</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로93길 17 현진빌딩 2층</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0507-1312-3311</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>이썸</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로4길 32 B1 지하1층</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0507-1344-3828</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 강남점</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로96길 11-4 지하1층</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '16:00 - 01:00'], ['월', '16:00 - 01:00'], ['화', '16:00 - 01:00'], ['수', '16:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '16:00 - 02:00'], ['토', '16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0507-1320-0535</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1914 라운지&amp;바</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로 231 조선 팰리스 24층</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '10:00 - 24:00', '23:00 라스트오더'], ['월', '10:00 - 24:00', '23:00 라스트오더'], ['화', '10:00 - 24:00', '23:00 라스트오더'], ['수', '10:00 - 24:00', '23:00 라스트오더'], ['목', '10:00 - 01:00', '00:00 라스트오더'], ['금', '10:00 - 01:00', '00:00 라스트오더'], ['토', '10:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>02-727-7640</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>더휴일 역삼점</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로3길 20-4 영광빌딩 지하 1층</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>02-568-9901</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>거나하게</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로14길 10 1층 거나하게</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0507-1324-1242</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>비놀릭</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로63길 69</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[['브레이크타임', '16:30에 영업 시작', '16시 30분에 영업 시작'], ['매일', '12:00 - 22:50', '14:30 - 16:30 브레이크타임', '21:50 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0507-1405-8897</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>아실라</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로98길 16 파빌리온</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '12:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '12:00 - 24:00'], ['- 추석당일과 구정당일은 휴무입니다']]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0507-1400-4665</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>인파밀리아 역삼점</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로87길 19 B1</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 22:00', '21:00 라스트오더'], ['월', '17:00 - 23:00', '22:00 라스트오더'], ['화', '17:00 - 23:00', '22:00 라스트오더'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0507-1361-1640</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>마카모예 와인바</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로63길 16 120호</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00', '23:00 라스트오더'], ['수', '18:00 - 24:00', '23:00 라스트오더'], ['목', '18:00 - 24:00', '23:00 라스트오더'], ['금', '18:00 - 24:00', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더'], ['- 마감시간은 23시부터 03시까지 유동적입니다.']]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>070-8778-4785</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>오너스</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로4길 19 3층,4층</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 24:00', '23:20 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0507-1324-6785</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>스시산원 반주헌</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 6 센트럴푸르지오시티 지하2층 224호</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 24:00', '14:30 - 17:30 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:30 - 17:30 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:30 - 17:30 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:30 - 17:30 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '14:30 - 17:30 브레이크타임', '23:00 라스트오더'], ['토', '11:30 - 24:00', '14:30 - 17:30 브레이크타임', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>02-562-0516</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>생활맥주 역삼초교점</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로4길 16 성우스타우스오피스텔 제1층 제111호</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:40 - 00:10', '23:40 라스트오더'], ['화', '16:40 - 00:10', '23:40 라스트오더'], ['수', '16:40 - 00:10', '23:40 라스트오더'], ['목', '16:40 - 00:10', '23:40 라스트오더'], ['금', '16:40 - 00:10', '23:40 라스트오더'], ['토', '16:40 - 23:00', '22:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>02-566-4945</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>소와루</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로87길 41 1층 105호 신일유토빌</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['매일', '12:00 - 05:00', '04:30 라스트오더'], ['- 매장상황에 따라 다를수있습니다 방문전 전화 부탁드려요.']]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0507-1491-0600</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>이자카야 규네</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로5길 21 1층</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 00:30'], ['화', '17:30 - 00:30'], ['수', '17:30 - 00:30'], ['목', '17:30 - 00:30'], ['금', '17:30 - 00:30'], ['토(7/29)', '휴무'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0507-1311-6795</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>오레노유메 선릉본점</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로51길 7 수지빌딩 2층</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0507-1325-1241</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>이자카야나무 강남역2호점</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로78길 8</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '15:30 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>02-558-6787</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>호센바</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로95길 29-8 1층</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 24:00', '14:00 - 18:00 브레이크타임', '23:00 라스트오더'], ['화', '11:30 - 24:00', '14:00 - 18:00 브레이크타임', '23:00 라스트오더'], ['수', '11:30 - 24:00', '14:00 - 18:00 브레이크타임', '23:00 라스트오더'], ['목', '11:30 - 24:00', '14:00 - 18:00 브레이크타임', '23:00 라스트오더'], ['금', '11:30 - 24:00', '14:00 - 18:00 브레이크타임', '23:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더'], ['07/31-08/03 휴무']]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0507-1306-3855</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>와인코르크 강남점</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 40 3층 와인코르크</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>02-501-6335</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>아이해브어드림 강남역 본점</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로5길 7 KG Tower 지하1층</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 01:00', '14:00 - 17:00 브레이크타임'], ['화', '11:00 - 01:00', '14:00 - 17:00 브레이크타임'], ['수', '11:00 - 01:00', '14:00 - 17:00 브레이크타임'], ['목', '11:00 - 01:00', '14:00 - 17:00 브레이크타임'], ['금', '11:00 - 01:00', '14:00 - 17:00 브레이크타임'], ['토', '12:00 - 01:00', '15:00 - 17:00 브레이크타임'], ['- 오늘은 부처님 오신날 연휴 이틀동안 쉽니다.']]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0507-1401-7697</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>깜브레</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로11길 7 2층</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작'], ['일', '18:30 - 02:00'], ['월', '18:30 - 02:00'], ['화', '18:30 - 02:00'], ['수', '18:30 - 02:00'], ['목', '18:30 - 02:00'], ['금', '18:30 - 02:00'], ['토', '18:30 - 02:00'], ['- 일요일은 12시까지 영업합니다.']]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>02-556-5503</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>블루밍 재즈바</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로19길 21 지하1층</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0507-1466-5026</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>이자카야 나무 선릉점</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로 517 비젼빌딩</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[['영업 중', '04:30에 라스트오더', '4시 30분에 라스트오더'], ['매일', '11:30 - 05:00', '04:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>02-557-0348</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>사이드바 인 시네마</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로102길 22 F층</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['화', '19:10 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0507-1397-4121</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>29펍 ITALIA Vintage 1호점</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>서울 강남구 테헤란로1길 28-1</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['토', '13:00 - 05:00'], ['일', '13:00 - 05:00'], ['월', '13:00 - 03:00'], ['화', '13:00 - 03:00'], ['수', '13:00 - 03:00'], ['목', '13:00 - 03:00'], ['금', '13:00 - 03:00']]</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>02-561-9927</t>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0507-1375-2902</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>재패니즈다이닝안심</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로98길 9 2층</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 23:00', '22:00 라스트오더'], ['화', '17:30 - 23:00', '22:00 라스트오더'], ['수', '17:30 - 23:00', '22:00 라스트오더'], ['목', '17:30 - 23:00', '22:00 라스트오더'], ['금', '17:30 - 23:00', '22:00 라스트오더'], ['토', '17:30 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>070-8808-0618</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>세이버리</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로19길 21 1층</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 02:00'], ['화', '17:30 - 02:00'], ['수', '17:30 - 02:00'], ['목', '17:30 - 02:00'], ['금', '17:30 - 02:00'], ['토', '17:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>070-4115-8668</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>오레노유메 강남역점</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로3길 17-4 2, 3층</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0507-1336-1241</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>쿼터백</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 29 용일빌딩 지하1층, 1층</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:15에 라스트오더', '22시 15분에 라스트오더'], ['일', '13:00 - 23:00', '22:15 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 23:00', '22:15 라스트오더'], ['수', '16:00 - 23:00', '22:15 라스트오더'], ['목', '16:00 - 23:00', '22:15 라스트오더'], ['금', '16:00 - 23:00', '22:15 라스트오더'], ['토', '13:00 - 23:00', '22:15 라스트오더'], ['- 매주 월요일은 정기휴무일입니다.']]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>02-567-7879</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>생활맥주 강남역점</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로78길 18 1층</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '15:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>02-558-9664</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>맥쓰세계치킨 강남역점</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>치킨,닭강정</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 6 센트럴푸르지오시티 1층 113호</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '15:30 - 01:00'], ['월', '15:30 - 01:00'], ['화', '15:30 - 01:00'], ['수', '15:30 - 01:00'], ['목', '15:30 - 01:00'], ['금', '15:30 - 01:00'], ['토', '15:30 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>02-552-8292</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>케그브루 역삼점</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로20길 18 KEGBRU 양조장 펍</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 23:30', '14:30 - 16:30 브레이크타임'], ['화', '11:00 - 23:30', '14:30 - 16:30 브레이크타임'], ['수', '11:00 - 23:30', '14:30 - 16:30 브레이크타임'], ['목', '11:00 - 23:30', '14:30 - 16:30 브레이크타임'], ['금', '11:00 - 23:30', '14:30 - 16:30 브레이크타임'], ['토', '정기휴무 (매주 토요일)'], ['- 케그브루 16:30부터(점심은 고레카레 운영).토일휴무']]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>02-569-3070</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>파복스</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 26 3층 파복스</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 03:00', '02:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0507-1306-3489</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>배드라핀 [Bad Lapin]</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로97길 23 1층 카페</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '12:00 - 24:00', '23:00 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0507-1310-7913</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>기네스하우스</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로43길 18 101호</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:30에 영업 종료', '2시 30분에 영업 종료'], ['매일', '13:00 - 02:30']]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0507-1493-7179</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>수작 선릉</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로52길 15 1층 101호</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['화', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['수', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['목', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['금', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['토', '11:00 - 24:00', '15:00 - 17:00 브레이크타임']]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>010-8654-5989</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>레드비틀</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로53길 18</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0507-1438-3650</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>역전할머니맥주 강남역CGV점</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 28-6 1층 역전할머니맥주 강남역CGV점</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '15:00 - 02:00'], ['월', '정보없음'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>02-554-8164</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>델라마노 시가바</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로44길 59</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0507-1303-6476</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>이자카야 신조</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로84길 33 대우 디오빌플러스 B101호</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>02-2050-0066</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>텀블러비어 역삼직영점</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로20길 15 메이플라워멤버스빌오피스텔</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 03:00', '02:30 라스트오더'], ['화', '16:00 - 03:00', '02:30 라스트오더'], ['수', '16:00 - 03:00', '02:30 라스트오더'], ['목', '16:00 - 03:00', '02:30 라스트오더'], ['금', '16:00 - 03:00', '02:30 라스트오더'], ['토', '16:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>02-538-6665</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>소울로뎅</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>서울 강남구 도곡로3길 26 104호, 109호 1층</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:30 - 02:00', '01:10 라스트오더'], ['화', '18:30 - 02:00', '01:10 라스트오더'], ['수', '18:30 - 02:00', '01:10 라스트오더'], ['목', '18:30 - 02:00', '01:10 라스트오더'], ['금', '18:30 - 02:00', '01:10 라스트오더'], ['토', '18:30 - 02:00', '01:10 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0507-1330-8481</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>만타</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로37길 13-6 1층</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월', '15:00 - 02:00', '01:30 라스트오더'], ['화', '15:00 - 02:00', '01:30 라스트오더'], ['수', '15:00 - 02:00', '01:30 라스트오더'], ['목', '15:00 - 02:00', '01:30 라스트오더'], ['금', '15:00 - 02:00', '01:30 라스트오더'], ['토', '18:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>02-6952-5321</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>브롱스 강남역삼점</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 34 지하1층 101호</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 24:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>02-566-7078</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>더블린테라스</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로94길 27-15 태리빌딩</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '15:00 - 01:00'], ['- 매장 상황에 따라 영업시간이 다를수 있습니다']]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>02-555-2553</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>비랩</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로98길 10 2층 비랩 칵테일바</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 23:00', '22:45 라스트오더'], ['월', '17:00 - 23:00', '22:45 라스트오더'], ['화', '17:00 - 23:00', '22:45 라스트오더'], ['수', '17:00 - 23:00', '22:45 라스트오더'], ['목', '17:00 - 23:00', '22:45 라스트오더'], ['금', '17:00 - 23:30', '23:15 라스트오더'], ['토', '17:00 - 23:30', '23:15 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>010-2780-1245</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>선오뎅</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로94길 27</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>02-563-0286</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Coffee Bar K</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로 517</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>02-516-1970</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>와뱅</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로 535 2F</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '와인 샵 매주 일요일 휴무'], ['일', '와인 샵 정기휴무 (매주 일요일)', '와인 바 정기휴무 (매주 일요일)'], ['월', '와인 샵 13:30 - 24:00', '와인 바 14:00 - 01:00'], ['화', '와인 샵 13:30 - 24:00', '와인 바 14:00 - 01:00'], ['수', '와인 샵 13:30 - 24:00', '와인 바 14:00 - 01:00'], ['목', '와인 샵 13:30 - 24:00', '와인 바 14:00 - 01:00'], ['금', '와인 샵 13:30 - 24:00', '와인 바 14:00 - 01:00'], ['토', '와인 샵 13:30 - 24:00', '와인 바 14:00 - 01:00'], ['와인 바 - 와인 오마카세는 6pm 부터 가능 합니다.']]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>02-555-0368</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>신바시만텐 본점</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로93길 18</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>02-552-2584</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>작</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로95길 14 101호</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>02-501-2342</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>홀덤바</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로 328 동우빌딩 지층 106-비74호</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[['24시간 영업', '연중무휴', '연중무휴'], ['매일', '00:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0507-1355-3851</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>욜로</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로106길 9 1층</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['일', '13:00 - 23:00'], ['월', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['화', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['수', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['목', '11:00 - 24:00', '15:00 - 17:00 브레이크타임'], ['금', '11:00 - 01:00', '15:00 - 17:00 브레이크타임'], ['토', '12:00 - 01:00'], ['- 1/21(토) 휴무입니다']]</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>02-556-8109</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>오꼬뎅</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로106길 7 1층</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 04:00', '03:30 라스트오더'], ['화', '18:00 - 04:00', '03:30 라스트오더'], ['수', '18:00 - 04:00', '03:30 라스트오더'], ['목', '18:00 - 04:00', '03:30 라스트오더'], ['금', '18:00 - 04:00', '03:30 라스트오더'], ['토', '18:00 - 04:00', '03:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0507-1358-1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>접객</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로98길 11 1층 접객</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:00 라스트오더'], ['화', '18:00 - 01:00', '00:00 라스트오더'], ['수', '18:00 - 01:00', '00:00 라스트오더'], ['목', '18:00 - 01:00', '00:00 라스트오더'], ['금', '18:00 - 01:00', '00:00 라스트오더'], ['토', '18:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0507-1317-9309</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>오엠피</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로89길 7 지하1층</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0507-1335-6829</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>미믹 강남점</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로98길 12 지상4층</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 03:00'], ['월', '18:00 - 03:00'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00'], ['- 3월 22일 오픈입니다!']]</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0507-1345-6490</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>강남오뎅</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로4길 16 성우스타우스오피스텔 B1 강남오뎅</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0507-1381-5050</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>공감 LP바</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로93길 28 2층</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 24:00'], ['화', '19:00 - 24:00'], ['수', '19:00 - 24:00'], ['목', '19:00 - 24:00'], ['금', '19:00 - 24:00'], ['토', '19:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0507-1381-5144</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>타로맨스</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>서울 강남구 도곡로11길 10 1층 골목안쪽 검은색 간판 타로맨스</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0507-1361-9410</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>인쌩맥주 강남역2호점</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로1길 28-5 지하1층</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['매일', '15:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0507-1344-2847</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>케그샵프리미엄수제맥주&amp;전통주셀렉샵 강남점</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로94길 55-3 1층</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['- 설연휴 21~22일 오픈/23~24일 off 입니다!']]</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0507-1332-0990</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>더위스키바이로이</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 46 쌍용플래티넘 104동 112호</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 00:30'], ['화', '19:00 - 00:30'], ['수', '19:00 - 00:30'], ['목', '19:00 - 00:30'], ['금', '19:00 - 00:30'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>02-538-0807</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>생활맥주 역삼점</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로93길 34</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['일', '16:00 - 01:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 01:00'], ['- 대관 문의 환영']]</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>02-501-0530</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>불독펍</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로2길 15 2층</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 01:00', '00:30 라스트오더'], ['화', '19:00 - 01:00', '00:30 라스트오더'], ['수', '19:00 - 01:00', '00:30 라스트오더'], ['목', '19:00 - 01:00', '00:30 라스트오더'], ['금', '19:00 - 02:00', '01:30 라스트오더'], ['토', '19:00 - 02:00', '01:30 라스트오더'], ['- 일요일휴무']]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>02-563-9196</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>비어테라스</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로8길 20 1층</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '10:00 - 24:00'], ['화', '10:00 - 24:00'], ['수', '10:00 - 24:00'], ['목', '10:00 - 24:00'], ['금', '10:00 - 24:00'], ['토', '17:00 - 23:00'], ['- 첫째주 토요일 휴무']]</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>02-554-7448</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>교동전선생 강남쌍용점</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 46 138호</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['일', '16:00 - 22:00', '21:30 라스트오더'], ['월', '11:30 - 23:00', '22:30 라스트오더'], ['화', '11:30 - 23:00', '22:30 라스트오더'], ['수', '11:30 - 23:00', '22:30 라스트오더'], ['목', '11:30 - 23:00', '22:30 라스트오더'], ['금', '11:30 - 23:00', '22:30 라스트오더'], ['토', '16:00 - 22:00', '21:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>02-565-0850</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>어게인</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로 328 강남역쉐르빌오피스텔 B1</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 02:00', '01:30 라스트오더'], ['화', '16:30 - 02:00', '01:30 라스트오더'], ['수', '16:30 - 02:00', '01:30 라스트오더'], ['목', '16:30 - 02:00', '01:30 라스트오더'], ['금', '16:30 - 02:00', '01:30 라스트오더'], ['토', '16:30 - 23:00', '22:30 라스트오더'], ['- 0']]</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>02-538-0539</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>영화와인셀러</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로93길 32-6 이담</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 23:00'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>02-553-7233</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>브루웍스 역삼점</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로94길 21 2층</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>02-558-9474</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>88노가리 강남점</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로96길 18 2층</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0507-1361-1709</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>와인바 컨티뉴엄</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로 231 EAST 2층 E205호</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)'], ['화', '11:30 - 23:30', '15:00 - 17:30 브레이크타임'], ['수', '11:30 - 23:30', '15:00 - 17:30 브레이크타임'], ['목', '11:30 - 23:30', '15:00 - 17:30 브레이크타임'], ['금', '11:30 - 23:30', '15:00 - 17:30 브레이크타임'], ['토', '11:30 - 23:30', '15:00 - 17:30 브레이크타임']]</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>010-8296-7214</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>도화오뎅 선릉점</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로93길 32 . 지하1층(역삼동)</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00', '00:30 라스트오더'], ['화', '18:00 - 01:00', '00:30 라스트오더'], ['수', '18:00 - 01:00', '00:30 라스트오더'], ['목', '18:00 - 01:00', '00:30 라스트오더'], ['금', '18:00 - 01:00', '00:30 라스트오더'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0507-1476-1220</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>프리버드</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로8길 46</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>02-556-7733</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>감성캠핑 맥주창고</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로2길 17 지하1층</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>02-568-8857</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>윤포차</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로27길 26 지하1층</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 06:50'], ['화', '18:00 - 06:50'], ['수', '18:00 - 06:50'], ['목', '18:00 - 06:50'], ['금', '18:00 - 06:50'], ['토', '정기휴무 (매주 토요일)'], ['- 아침 7시까지 영업합니다.']]</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>02-508-0616</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>이층맥주창고</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로94길 86 2층</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 01:00', '14:00 - 18:00 브레이크타임'], ['화', '11:00 - 01:00', '14:00 - 18:00 브레이크타임'], ['수', '11:00 - 01:00', '14:00 - 18:00 브레이크타임'], ['목', '11:00 - 01:00', '14:00 - 18:00 브레이크타임'], ['금', '11:00 - 01:00', '14:00 - 18:00 브레이크타임'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0507-1319-5674</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>디깅</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로10길 14 지하 디깅</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00', '01:30 라스트오더'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '18:00 - 02:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0507-1415-1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>펀비어킹 강남경복사거리점</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로108길 15</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[['영업 중', '06:00에 영업 종료', '6시 0분에 영업 종료'], ['매일', '10:30 - 06:00'], ['- 아침 8시까지 영업합니다.']]</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>02-565-9978</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>김봉남포장마차 역삼2호점</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로87길 15 LS빌딩</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 04:00'], ['화', '17:00 - 04:00'], ['수', '17:00 - 04:00'], ['목', '17:00 - 04:00'], ['금', '17:00 - 04:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>02-588-9292</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>쟌비어</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로98길 10 지하1층</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>010-3471-9984</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>남도술상 역삼점</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로21길 8 1층</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '15:00 - 01:00'], ['화', '15:00 - 01:00'], ['수', '15:00 - 01:00'], ['목', '15:00 - 01:00'], ['금', '15:00 - 01:00'], ['토', '15:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0507-1378-8903</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>브루113</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로 113 1층 103호</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00', '00:30 라스트오더'], ['화', '17:00 - 01:00', '00:30 라스트오더'], ['수', '17:00 - 01:00', '00:30 라스트오더'], ['목', '17:00 - 01:00', '00:30 라스트오더'], ['금', '17:00 - 01:00', '00:30 라스트오더'], ['토', '16:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0507-1309-7520</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>준코 역삼점</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로78길 12 예미프레스티지 지하1층</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 05:00'], ['월', '17:00 - 05:00'], ['화', '17:00 - 05:00'], ['수', '17:00 - 05:00'], ['목', '17:00 - 05:00'], ['금', '17:00 - 06:00'], ['토', '17:00 - 06:00'], ['- 공휴일전날 주말영업 적용']]</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>02-554-6665</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>라틴펍 쿠바</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로 130 지하1층 라틴펍 쿠바</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:30 - 02:00'], ['화', '19:30 - 02:00'], ['수', '19:30 - 02:00'], ['목', '19:30 - 02:00'], ['금', '19:30 - 02:00'], ['토', '19:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0507-1377-5414</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>링코노래타운 강남점</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로2길 37 지하1층</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 03:00'], ['월', '17:00 - 04:00'], ['화', '17:00 - 04:00'], ['수', '17:00 - 04:00'], ['목', '17:00 - 04:00'], ['금', '17:00 - 05:00'], ['토', '17:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>02-538-1259</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>고매 주류공장</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로84길 15 강남역효성해링턴타워더퍼스트 209호</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00', '01:20 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0507-1373-1193</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>고섭포차</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로44길 64 지하 1층</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:50 - 03:10'], ['화', '17:50 - 03:10'], ['수', '17:50 - 03:10'], ['목', '17:50 - 03:10'], ['금', '17:50 - 03:10'], ['토', '17:50 - 02:25'], ['- 새벽 1시까지 손님 없으시면 일찍 닫습니다^^']]</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>010-2052-2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>남오토코 역삼점</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로85길 29 2층</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 02:00', '01:20 라스트오더'], ['화', '17:00 - 02:00', '01:20 라스트오더'], ['수', '17:00 - 02:00', '01:20 라스트오더'], ['목', '17:00 - 02:00', '01:20 라스트오더'], ['금', '17:00 - 02:00', '01:20 라스트오더'], ['토', '17:00 - 02:00', '01:20 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>02-539-1098</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>서울황태</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로3길 14</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['일', '18:00 - 24:00'], ['월', '18:00 - 03:00'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>생활맥주 테헤란로점</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로93길 27 생활맥주</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['일', '15:00 - 24:00'], ['월', '15:00 - 02:00'], ['화', '15:00 - 02:00'], ['수', '15:00 - 02:00'], ['목', '15:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>070-7724-0827</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>블루문 와인&amp;라운지</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼동 700-36</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:30에 영업 시작', '17시 30분에 영업 시작'], ['매일', '17:30 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>010-6454-0339</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>남도포차</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로24길 11</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>02-3444-7051</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>생활맥주 역삼역4번출구점</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로25길 9 지상 1층</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 01:00'], ['화', '16:00 - 01:00'], ['수', '16:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '16:00 - 01:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>02-556-9665</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>심야식당완</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로66길 14 와이즈플레이스 1층 심야식당 완</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00', '01:00 라스트오더'], ['화', '18:00 - 02:00', '01:00 라스트오더'], ['수', '18:00 - 02:00', '01:00 라스트오더'], ['목', '18:00 - 02:00', '01:00 라스트오더'], ['금', '18:00 - 02:00', '01:00 라스트오더'], ['토', '18:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>070-7543-8353</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>강남 시소</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로3길 14 B1층</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 24:00', '23:00 라스트오더'], ['화', '17:30 - 24:00', '23:00 라스트오더'], ['수', '17:30 - 24:00', '23:00 라스트오더'], ['목', '17:30 - 24:00', '23:00 라스트오더'], ['금', '17:30 - 24:00', '23:00 라스트오더'], ['토', '17:30 - 23:50', '22:50 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0507-1488-2073</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>바코드플러스</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로85길 47 2층</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:40 - 00:30', '14:00 - 18:00 브레이크타임', '13:00, 23:30 라스트오더'], ['화', '11:40 - 00:30', '14:00 - 18:00 브레이크타임', '13:00, 23:30 라스트오더'], ['수', '11:40 - 00:30', '14:00 - 18:00 브레이크타임', '13:00, 23:30 라스트오더'], ['목', '11:40 - 00:30', '14:00 - 18:00 브레이크타임', '13:00, 23:30 라스트오더'], ['금', '11:40 - 00:30', '14:00 - 18:00 브레이크타임', '13:00, 23:30 라스트오더'], ['토', '정기휴무 (매주 토요일)'], ['- 주말은 단체예약원칙으로 인원/시간에 따라 결정합니다.']]</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>02-501-8355</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>디귿</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로6길 45 1층</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '14:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>02-6949-0664</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>세브니카</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 6 센트럴푸르지오시티 106, 107, 108호</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 23:00', '15:00 - 16:00 브레이크타임'], ['화', '11:00 - 23:00', '15:00 - 16:00 브레이크타임'], ['수', '11:00 - 23:00', '15:00 - 16:00 브레이크타임'], ['목', '11:00 - 23:00', '15:00 - 16:00 브레이크타임'], ['금', '11:00 - 23:00', '15:00 - 16:00 브레이크타임'], ['토', '11:00 - 22:00', '15:00 - 16:00 브레이크타임']]</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0507-1441-8121</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>엠플라운지</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로 404 지하1층 엠플라운지</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0507-1412-7847</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>카타죠우</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로93길 28-8 코넬빌딩 1층 2호</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 01:00', '00:00 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0507-1357-2471</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>더레드</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로43길 26</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 00:30'], ['화', '17:00 - 00:30'], ['수', '17:00 - 00:30'], ['목', '17:00 - 00:30'], ['금', '17:00 - 00:30'], ['토', '17:00 - 00:30']]</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>02-569-1238</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>미스터포차</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>서울 강남구 도곡로3길 26 역삼한스빌아파트</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 04:00'], ['화', '18:00 - 04:00'], ['수', '18:00 - 04:00'], ['목', '18:00 - 04:00'], ['금', '18:00 - 04:00'], ['토', '18:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>02-569-5691</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>더위스키 역삼점</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로94길 87 1층 더위스키 역삼점</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0507-1358-7891</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>리얼펍&amp;살얼음맥주 강남1호역삼점</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>서울 강남구 도곡로7길 28 1층 103호</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:00 - 02:00', '00:30 라스트오더'], ['화', '16:00 - 02:00', '00:30 라스트오더'], ['수', '16:00 - 02:00', '00:30 라스트오더'], ['목', '16:00 - 02:00', '00:30 라스트오더'], ['금', '16:00 - 02:00', '00:30 라스트오더'], ['토', '16:00 - 02:00', '00:30 라스트오더'], ['- 일요일 단체예약시 정상영업합니다.~']]</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>02-555-1448</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>저스트어글라스오브와인</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>서울 강남구 도곡로1길 10 프린스타워 4층</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 24:00'], ['화', '11:00 - 24:00'], ['수', '11:00 - 24:00'], ['목', '11:00 - 24:00'], ['금', '11:00 - 24:00'], ['토', '11:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>010-2535-4587</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>더 위스키</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로66길 14 1층 104호</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '정기휴무 (매주 토요일)']]</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>02-501-7890</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>비포더던</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로98길 13 지하1층</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '정기휴무 (매주 토요일)'], ['- 법정공휴일은 휴무입니다']]</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>02-552-5527</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>십앤칠</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로80길 9 1층</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 24:00', '17:00 - 19:00 브레이크타임'], ['화', '11:00 - 24:00', '17:00 - 19:00 브레이크타임'], ['수', '11:00 - 24:00', '17:00 - 19:00 브레이크타임'], ['목', '11:00 - 24:00', '17:00 - 19:00 브레이크타임'], ['금', '11:00 - 02:00', '17:00 - 19:00 브레이크타임'], ['토', '정기휴무 (매주 토요일)'], ['- 주말은 대관 및 행사 중심으로 운영됩니다 :)']]</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0507-1382-2852</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>맥주를듣는사람들 ARK</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로55길 17 지하1층</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '16:30 - 01:00', '00:30 라스트오더'], ['화', '16:30 - 01:00', '00:30 라스트오더'], ['수', '16:30 - 01:00', '00:30 라스트오더'], ['목', '16:30 - 01:00', '00:30 라스트오더'], ['금', '16:30 - 01:00', '00:30 라스트오더'], ['토', '16:30 - 01:00', '00:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0507-1328-2667</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>봉구비어 강남역2호점</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로18길 90 2층</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['일', '15:00 - 02:00'], ['월', '17:00 - 02:00'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>02-565-7573</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sueno</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로25길 26 1층</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '10:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>02-539-5592</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>포도 강남역점</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로 396 강남역 지하상가 6번출구 바로아래</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['매일', '11:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>070-4150-5123</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>야신</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로98길 5-4 1층</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 00:30', '23:30 라스트오더'], ['화', '17:30 - 00:30', '23:30 라스트오더'], ['수', '17:30 - 00:30', '23:30 라스트오더'], ['목', '17:30 - 00:30', '23:30 라스트오더'], ['금', '17:30 - 00:30', '23:30 라스트오더'], ['토', '17:30 - 00:30', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0507-1303-5792</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>케씨펍</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로2길 10 2층</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>02-565-5465</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>맥주여행</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>서울 강남구 선릉로93길 9 장원빌딩 2층</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:30 - 02:00'], ['화', '17:30 - 02:00'], ['수', '17:30 - 02:00'], ['목', '17:30 - 02:00'], ['금', '17:30 - 02:00'], ['토', '17:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>02-563-5955</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>맥주마켓펍</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로3길 22</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[['영업 전', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['일', '17:00 - 02:00'], ['월', '17:00 - 03:00'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0507-1311-8770</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>유메</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로37길 3 1층 102호</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['화', '11:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['수', '11:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['목', '11:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['금', '11:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['토', '11:00 - 15:00', '14:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0507-1319-7445</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>탄 역삼점</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>서울 강남구 언주로87길 44</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>02-555-3442</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>명오뎅빠이자까야</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로4길 16</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[['브레이크타임', '17:00에 영업 시작', '17시 0분에 영업 시작'], ['매일', '11:00 - 02:00', '14:00 - 17:00 브레이크타임']]</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>02-565-9415</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>AllBarOne Dublin</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>서울 강남구 강남대로 442 흥국생명 별관 더블린 2층</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 영업 종료', '1시 30분에 영업 종료'], ['일', '16:00 - 01:30'], ['월', '16:00 - 01:30'], ['화', '16:00 - 01:30'], ['수', '16:00 - 01:30'], ['목', '16:00 - 01:30'], ['금', '16:00 - 01:30'], ['토', '16:00 - 01:30']]</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>02-538-2556</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>바라바</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로 128 지하1층</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작'], ['일', '20:00 - 03:00', '01:30 라스트오더'], ['월', '20:00 - 02:00', '00:30 라스트오더'], ['화', '20:00 - 02:00', '00:30 라스트오더'], ['수', '20:00 - 02:00', '00:30 라스트오더'], ['목', '20:00 - 02:00', '00:30 라스트오더'], ['금', '20:00 - 02:00', '00:30 라스트오더'], ['토', '20:00 - 03:00', '01:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>02-556-6876</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>FR13ND PUB</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로71길 8 1층 FR13ND PUB</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 01:00'], ['화', '19:00 - 01:00'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '19:00 - 01:00'], ['토', '20:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>0507-1338-4798</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>펍뉴욕</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로63길 16 111호</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>0507-1415-6331</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>탑에스바</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>서울 강남구 역삼로 106 BIEL106 1층 101호</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>0507-1398-1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>타임즈</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로25길 42 지하1층</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[['영업 중', '05:00에 영업 종료', '5시 0분에 영업 종료'], ['매일', '11:00 - 05:00']]</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>010-2145-9585</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>셀라비</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로5길 31</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 24:00'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>0507-1305-7351</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>강남 돔 가라오케 노래방 파티 룸</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>유흥주점</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>서울 강남구 봉은사로22길 63 B101호</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[['24시간 영업', '연중무휴', '연중무휴'], ['매일', '00:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>0507-1467-6012</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>메종드 위스키</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>서울 강남구 테헤란로4길 46 1층 상가 127호</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:00 - 02:00'], ['화', '18:00 - 02:00'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>02-554-5212</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>WHISKY BARREL</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>서울 강남구 논현로85길 52 역삼푸르지오시티 상가 1층 위스키배럴</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 일요일 휴무', '매주 일요일 휴무'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 03:00'], ['화', '19:00 - 03:00'], ['수', '19:00 - 03:00'], ['목', '19:00 - 03:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>02-501-3443</t>
         </is>
       </c>
     </row>
